--- a/PCB/Project Outputs for PCB/Bill of Materials/[No Variations].xlsx
+++ b/PCB/Project Outputs for PCB/Bill of Materials/[No Variations].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3294\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4811DFC1-5FE2-4460-A04E-67075DAF5EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C064AB2-2663-458D-A4EF-C0E86C50C07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{02E737EC-5604-4D4C-8AD0-6E2C9FBFF433}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="8970" xr2:uid="{3F175AB6-94E5-4F27-A161-1CB234360ED0}"/>
   </bookViews>
   <sheets>
     <sheet name=" No Variations " sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C497D6-50E7-4E4D-9BAC-6E90FCE3066D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C63E8F-E722-4F78-B3E3-A273A0735082}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -746,13 +746,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="18" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -852,7 +852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -896,7 +896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
-        <v>589873</v>
+        <v>558688</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>35</v>
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1.47</v>
       </c>
       <c r="N5" s="4">
-        <v>9137</v>
+        <v>11160</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>42</v>
@@ -990,7 +990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -1020,16 +1020,16 @@
         <v>49</v>
       </c>
       <c r="K6" s="4">
-        <v>0.50692999999999999</v>
+        <v>0.45793</v>
       </c>
       <c r="L6" s="4">
-        <v>0.50692999999999999</v>
+        <v>0.45793</v>
       </c>
       <c r="M6" s="4">
-        <v>0.50692999999999999</v>
+        <v>0.45793</v>
       </c>
       <c r="N6" s="4">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>45</v>
@@ -1044,7 +1044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -1128,13 +1128,13 @@
         <v>60</v>
       </c>
       <c r="K8" s="4">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="L8" s="4">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M8" s="4">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="N8" s="4">
         <v>4169</v>
@@ -1152,7 +1152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1232,16 +1232,16 @@
         <v>68</v>
       </c>
       <c r="K10" s="4">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="L10" s="4">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="M10" s="4">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="N10" s="4">
-        <v>17461</v>
+        <v>17459</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>67</v>
@@ -1256,7 +1256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
-        <v>48258</v>
+        <v>47838</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>72</v>
@@ -1302,7 +1302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1.47</v>
       </c>
       <c r="N12" s="4">
-        <v>9137</v>
+        <v>11160</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>42</v>
@@ -1352,7 +1352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
-        <v>43005</v>
+        <v>42295</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>79</v>
@@ -1396,7 +1396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
-        <v>638</v>
+        <v>538</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>85</v>
@@ -1438,7 +1438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
@@ -1514,16 +1514,16 @@
         <v>96</v>
       </c>
       <c r="K16" s="4">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="L16" s="4">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="M16" s="4">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="N16" s="4">
-        <v>1890</v>
+        <v>867</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>93</v>
@@ -1538,7 +1538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>98</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>100</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
